--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1115267.89234439</v>
+        <v>1109263.682529111</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10905231.83017934</v>
+        <v>11161664.80186299</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>148.4399041872966</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>136.0870494265628</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>143.9764333632488</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>114.4746605491558</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>136.0870494265628</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.96122915361011</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>52.23490948285971</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>136.087049426561</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>72.89138480951716</v>
       </c>
       <c r="V10" t="n">
-        <v>7.906645607738021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.1158122680972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.4946167489011</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>168.1158122680972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.7228684476127</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>91.87132188694034</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812118</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>174.7683347992599</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>206.7582264966181</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>152.2221689967094</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3065.37585597738</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2734.312968633809</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>2381.544313363695</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.078555102614</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>1929.306953064063</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>1760.370770136156</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>1610.25413072382</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1530.147236421175</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="U4" t="n">
-        <v>1241.044369546818</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="V4" t="n">
-        <v>986.3598813409312</v>
+        <v>2849.154717972811</v>
       </c>
       <c r="W4" t="n">
-        <v>696.9427113039706</v>
+        <v>2559.73754793585</v>
       </c>
       <c r="X4" t="n">
-        <v>468.9531604059532</v>
+        <v>2331.747997037833</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>2110.955417894303</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.75081059268</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8175152271517</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8175152271517</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>362.8175152271517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>362.8175152271517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>362.8175152271517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3077.853487048829</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2824.323010322666</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2824.323010322666</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2824.323010322666</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.541421943132</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.124251906171</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3155.791869823214</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>2782.326111562134</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2392.186779586323</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>443.4949469776668</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5509,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1022.530292372933</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346703</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.178757203173</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,10 +5770,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2728.681365661313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6007,10 +6007,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362663</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6472,43 +6472,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081857</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.60104615395</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741615</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159222</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661311</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376191</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218389</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398592</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398592</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398592</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196492</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990605</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953644</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055627</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912097</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081858</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153951</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741615</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673936</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.185983673936</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>4149.501495468049</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953645</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055628</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7156,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4517.069482196493</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4517.069482196493</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>4517.069482196493</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>4262.384993990607</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>3972.967823953646</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3160.164713532175</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>3160.164713532175</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>3010.048074119839</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>2862.134980537446</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>2715.245033039535</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>3160.164713532175</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.1251564493158</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>26.93934589766803</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>181.1251564493158</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.89260457059966</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>75.3754992116875</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405067</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>62.35543909864913</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>37.12601365260414</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>45.37941682720987</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>144.59566540674</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>13.30196929555947</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814152.0058469225</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814152.0058469225</v>
+        <v>961206.0779010161</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>961206.0779010161</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719632</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719633</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719632</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165591</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
@@ -26340,22 +26340,22 @@
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="N2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="N2" t="n">
-        <v>464109.2948217535</v>
-      </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.03345982</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545138</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.842883194</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13430.06689216532</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13430.06689216532</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
@@ -26444,19 +26444,19 @@
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>271371.2342273759</v>
       </c>
       <c r="D6" t="n">
-        <v>271371.2342273759</v>
+        <v>271371.2342273757</v>
       </c>
       <c r="E6" t="n">
-        <v>304410.2563630003</v>
+        <v>23620.11582429145</v>
       </c>
       <c r="F6" t="n">
-        <v>304410.2563630003</v>
+        <v>349032.5776316471</v>
       </c>
       <c r="G6" t="n">
-        <v>39536.92342618367</v>
+        <v>349032.5776316471</v>
       </c>
       <c r="H6" t="n">
-        <v>349379.9568860038</v>
+        <v>349032.5776316469</v>
       </c>
       <c r="I6" t="n">
-        <v>349379.956886004</v>
+        <v>349032.5776316469</v>
       </c>
       <c r="J6" t="n">
-        <v>131848.7544887264</v>
+        <v>131501.3752343692</v>
       </c>
       <c r="K6" t="n">
-        <v>349379.9568860043</v>
+        <v>349032.5776316469</v>
       </c>
       <c r="L6" t="n">
-        <v>349379.9568860035</v>
+        <v>349032.5776316469</v>
       </c>
       <c r="M6" t="n">
-        <v>349379.9568860038</v>
+        <v>263977.5496961351</v>
       </c>
       <c r="N6" t="n">
-        <v>349379.9568860037</v>
+        <v>349032.5776316468</v>
       </c>
       <c r="O6" t="n">
-        <v>267244.1262905525</v>
+        <v>349032.5776316471</v>
       </c>
       <c r="P6" t="n">
-        <v>349379.9568860038</v>
+        <v>349032.577631647</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26764,7 +26764,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973558</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973558</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973558</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>102.5552677716054</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>233.6440512519063</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>2.457529283320326</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>233.6440512519063</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.2767095024435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>61.76674224145199</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>67.83092071305916</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>213.3204533960957</v>
       </c>
       <c r="V10" t="n">
-        <v>244.23099771609</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837919</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565776</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004586</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121332</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1109263.682529111</v>
+        <v>1112418.601871333</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>1042617.113969141</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11161664.80186299</v>
+        <v>10905231.83017934</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>283.6826708844493</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>136.0870494265628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>143.9764333632488</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>192.1675620474806</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>136.0870494265628</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952951</v>
       </c>
     </row>
     <row r="6">
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886412</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>227.7172236952955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>49.71226836029172</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>72.89138480951716</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>232.8259547974246</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.4946167489011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>4.670144655842921</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>184.0064690004754</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>115.7228684476127</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>72.73795767383908</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>74.99129529219242</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174159</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6708469029962</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428297</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216701</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1686991936197</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>25.52471385612679</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629297</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>19.91555826189102</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552893</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>22.65115569188789</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>38.05096575280812</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>23.1099832571722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4363,19 +4363,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410103</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1929.306953064063</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>1760.370770136156</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>1610.25413072382</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.823389952862</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178698</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U4" t="n">
-        <v>3103.839206178698</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V4" t="n">
-        <v>2849.154717972811</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>2559.73754793585</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>2331.747997037833</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>2110.955417894303</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
@@ -4585,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4804,19 +4804,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4840,16 +4840,16 @@
         <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.1346335501037</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1787.249678360878</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="U10" t="n">
-        <v>1853.666886664739</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V10" t="n">
-        <v>1598.982398458852</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W10" t="n">
-        <v>1309.565228421891</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1081.575677523874</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.7830983803434</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179095</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900026</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776668</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979687</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>644.3338566427979</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1422.200456328343</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1053.237939387932</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1053.237939387932</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>667.4496867896873</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>667.4496867896873</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>252.3772366346838</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1662.13597939629</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1662.13597939629</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1407.451491190403</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1407.451491190403</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1179.461940292386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>958.6693611488557</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>800.500769464729</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>631.5645865368222</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.5645865368222</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>483.651492954429</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>336.7615454565187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>169.5654461713986</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579364</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373477</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336516</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438499</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949688</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,55 +5740,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>696.708435085168</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>527.7722521572612</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>380.8823046593508</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>213.6862053742307</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058938</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154078</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192613</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>198.0274703142544</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,34 +6481,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6609,16 +6609,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>198.0274703142544</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>198.0274703142544</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6727,13 +6727,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6919,43 +6919,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>113.9333885650335</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>113.9333885650335</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>113.9333885650335</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
         <v>240.7066105458823</v>
@@ -7362,22 +7362,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0193492433381</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7645,7 +7645,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111701</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
         <v>388.6197041282753</v>
@@ -7833,25 +7833,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.574334371285406e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>149.1044152748372</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>26.93934589766803</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.9145086962519</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>110.6012953868451</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.89260457059966</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>146.8109916023301</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>43.72409101823415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>65.30341755403144</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>21.62386594322767</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409392939</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>62.35543909864913</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>84.77391660561815</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>37.12601365260414</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>191.8807364711615</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>114.158440889165</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>144.59566540674</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>180.5336875992867</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>961206.077901016</v>
+        <v>814152.0058469225</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>961206.0779010161</v>
+        <v>814152.0058469225</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961206.0779010159</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961206.0779010159</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>961206.0779010159</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>961206.0779010159</v>
+        <v>961206.077901016</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>961206.0779010159</v>
+        <v>961206.0779010161</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010159</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>961206.077901016</v>
+        <v>961206.0779010161</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719633</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719632</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217539</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
@@ -26346,16 +26346,16 @@
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="P2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464109.2948217538</v>
       </c>
     </row>
     <row r="3">
@@ -26371,25 +26371,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>3.653453859442379e-10</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598204</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545136</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
@@ -26478,22 +26478,22 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="G5" t="n">
         <v>101122.5298239072</v>
       </c>
-      <c r="F5" t="n">
-        <v>101122.5298239071</v>
-      </c>
-      <c r="G5" t="n">
-        <v>101122.5298239071</v>
-      </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1057373.511500217</v>
       </c>
       <c r="C6" t="n">
-        <v>271371.2342273759</v>
+        <v>271371.2342273761</v>
       </c>
       <c r="D6" t="n">
-        <v>271371.2342273757</v>
+        <v>271371.2342273758</v>
       </c>
       <c r="E6" t="n">
-        <v>23620.11582429145</v>
+        <v>304062.6374331938</v>
       </c>
       <c r="F6" t="n">
-        <v>349032.5776316471</v>
+        <v>304062.6374331944</v>
       </c>
       <c r="G6" t="n">
-        <v>349032.5776316471</v>
+        <v>39502.18550074766</v>
       </c>
       <c r="H6" t="n">
-        <v>349032.5776316469</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="I6" t="n">
-        <v>349032.5776316469</v>
+        <v>349345.2189605682</v>
       </c>
       <c r="J6" t="n">
-        <v>131501.3752343692</v>
+        <v>131814.0165632908</v>
       </c>
       <c r="K6" t="n">
-        <v>349032.5776316469</v>
+        <v>349345.2189605685</v>
       </c>
       <c r="L6" t="n">
-        <v>349032.5776316469</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="M6" t="n">
-        <v>263977.5496961351</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="N6" t="n">
-        <v>349032.5776316468</v>
+        <v>349345.2189605681</v>
       </c>
       <c r="O6" t="n">
-        <v>349032.5776316471</v>
+        <v>267209.3883651168</v>
       </c>
       <c r="P6" t="n">
-        <v>349032.577631647</v>
+        <v>349345.2189605681</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="E3" t="n">
         <v>1089.776700593299</v>
       </c>
-      <c r="E3" t="n">
-        <v>1367.975500341674</v>
-      </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>341.306832697356</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>341.306832697356</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71.00037073623366</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>233.6440512519063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.457529283320326</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>27.38138722868857</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>233.6440512519063</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.5207149607585</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440367</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27827,13 +27827,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>61.76674224145199</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>100.0350347748393</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.5207149607581</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>140.0567569711502</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>213.3204533960957</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912031</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192539</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192539</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192539</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33110,31 +33110,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U28" t="n">
         <v>0.1345549672467222</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043726</v>
@@ -34365,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691847</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359206</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359206</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359206</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
